--- a/7-Gráficos/17. Linha de Tendência e Previsão (Parte 1) - Material(1).xlsx
+++ b/7-Gráficos/17. Linha de Tendência e Previsão (Parte 1) - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e775ab26b5c1cdcb/Hashtag/Aulas Excel Impressionador/Módulo 10 - Gráficos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{7BB362B6-3A84-447E-8AF8-8D5FF359ACCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136C4EFA-E666-4319-9AEC-D5A2D55B4135}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C68500-71F9-4F85-8D5D-92776447B15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format. Cond. - Parte 1" sheetId="5" r:id="rId1"/>
@@ -46,17 +46,31 @@
     <definedName name="Thresholds">#REF!</definedName>
     <definedName name="Username">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>Vendas</t>
   </si>
@@ -214,8 +228,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0_-;\-[$R$-416]\ * #,##0_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0_-;\-[$R$-416]\ * #,##0_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -495,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,28 +545,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -562,6 +573,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1864,6 +1880,56 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7012129486632336E-2"/>
+                  <c:y val="-0.14247746511578813"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>'Linha de Tendência e Previsão'!$B$4:$B$15</c:f>
@@ -5197,20 +5263,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2872085-859D-4884-BA1A-624D4790CA81}">
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
@@ -5218,7 +5284,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -5226,7 +5292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
@@ -5234,7 +5300,7 @@
         <v>10636</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -5242,7 +5308,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
@@ -5250,7 +5316,7 @@
         <v>11954</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
@@ -5258,7 +5324,7 @@
         <v>18516</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
@@ -5266,7 +5332,7 @@
         <v>16222</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -5274,7 +5340,7 @@
         <v>9278</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
@@ -5282,7 +5348,7 @@
         <v>8790</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
@@ -5290,7 +5356,7 @@
         <v>19240</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
@@ -5298,7 +5364,7 @@
         <v>14886</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
@@ -5306,7 +5372,7 @@
         <v>6354</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -5314,7 +5380,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
@@ -5334,17 +5400,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
@@ -5352,7 +5418,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -5363,7 +5429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
@@ -5375,7 +5441,7 @@
         <v>10636</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -5387,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
@@ -5399,7 +5465,7 @@
         <v>11954</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
@@ -5411,7 +5477,7 @@
         <v>18516</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
@@ -5423,7 +5489,7 @@
         <v>16222</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -5435,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
@@ -5447,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
@@ -5459,7 +5525,7 @@
         <v>19240</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
@@ -5471,7 +5537,7 @@
         <v>14886</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
@@ -5483,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -5495,7 +5561,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
@@ -5520,16 +5586,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
@@ -5537,7 +5603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -5545,7 +5611,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -5553,7 +5619,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -5561,7 +5627,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -5569,7 +5635,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -5577,7 +5643,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -5585,7 +5651,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -5593,7 +5659,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -5601,7 +5667,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -5609,7 +5675,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -5629,17 +5695,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
@@ -5653,7 +5719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -5669,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -5685,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -5701,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -5717,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -5733,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -5749,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -5765,7 +5831,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -5781,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -5797,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -5813,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
@@ -5822,7 +5888,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -5840,29 +5906,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABA1B37-1FF5-4F49-8468-F60C8F19439B}">
-  <dimension ref="B1:C25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="6.54296875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="6.5703125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20">
+    <row r="1" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="29">
         <v>2021</v>
       </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -5870,7 +5936,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -5878,7 +5947,10 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -5886,7 +5958,10 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
@@ -5894,7 +5969,10 @@
         <v>5977</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -5902,7 +5980,10 @@
         <v>9528</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
@@ -5910,7 +5991,10 @@
         <v>8111</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
@@ -5918,7 +6002,10 @@
         <v>4639</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -5926,7 +6013,10 @@
         <v>6895</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
@@ -5934,7 +6024,10 @@
         <v>9620</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
@@ -5942,7 +6035,10 @@
         <v>7443</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -5950,7 +6046,10 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
@@ -5958,7 +6057,10 @@
         <v>5780</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -5966,23 +6068,42 @@
         <v>7736</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23"/>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24"/>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="30">
+        <f>SLOPE(C4:C15, A4:A15)</f>
+        <v>140.37762237762237</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="30">
+        <f>INTERCEPT(C4:C15, A4:A15)</f>
+        <v>5413.878787878788</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="30"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="30"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
     </row>
@@ -6002,22 +6123,22 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="6.54296875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="6.5703125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6025,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -6036,7 +6157,7 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -6047,7 +6168,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -6058,7 +6179,7 @@
         <v>5977</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -6069,7 +6190,7 @@
         <v>9528</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -6080,7 +6201,7 @@
         <v>8111</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -6091,7 +6212,7 @@
         <v>4639</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -6102,7 +6223,7 @@
         <v>6895</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -6113,7 +6234,7 @@
         <v>9620</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -6124,7 +6245,7 @@
         <v>7443</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -6135,7 +6256,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -6146,7 +6267,7 @@
         <v>5780</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -6157,52 +6278,52 @@
         <v>7736</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="29" t="s">
+    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <f>SLOPE(C4:C15,A4:A15)</f>
         <v>140.37762237762237</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="23" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <f>INTERCEPT(C4:C15,A4:A15)</f>
         <v>5413.878787878788</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="25" t="s">
+    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <f>C22*C24+C23</f>
         <v>7519.5431235431242</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="27" t="s">
+    <row r="26" spans="2:3" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <f>_xlfn.FORECAST.LINEAR(C24,C4:C15,A4:A15)</f>
         <v>7519.5431235431242</v>
       </c>
